--- a/book.xlsx
+++ b/book.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27630"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\Documents\КГУ\4 семестр\ООП\OOP_Course_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BD8E29-0137-447A-9559-356F660EC935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602B3079-5196-4D20-B46F-A868D2DABFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="4860" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WarehouseProducts" sheetId="4" r:id="rId1"/>
+    <sheet name="WarehouseMaterials" sheetId="1" r:id="rId2"/>
+    <sheet name="UseMaterials" sheetId="2" r:id="rId3"/>
+    <sheet name="Accounting" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +25,77 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Цвет</t>
+  </si>
+  <si>
+    <t>Мера измерения</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Поступление/списание</t>
+  </si>
+  <si>
+    <t>Товар</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Текущее значение</t>
+  </si>
+  <si>
+    <t>Нужное кол-во</t>
+  </si>
+  <si>
+    <t>Толщина</t>
+  </si>
+  <si>
+    <t>Лампа напольная</t>
+  </si>
+  <si>
+    <t>Крутая лампа</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Фанера</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>дерево</t>
+  </si>
+  <si>
+    <t>Орг стекло</t>
+  </si>
+  <si>
+    <t>прозрачный</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -336,21 +411,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6676B928-6B2E-48CB-8DBF-D08773355537}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>44</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>1562500</v>
+      </c>
+      <c r="I3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>1500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1562500</v>
+      </c>
+      <c r="I4">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3895FE-C59F-4034-B166-7CE73FBF4B37}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC08696-492F-432A-870D-6C763A796766}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/book.xlsx
+++ b/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\Documents\КГУ\4 семестр\ООП\OOP_Course_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602B3079-5196-4D20-B46F-A868D2DABFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706F09D5-B7B7-4BEB-B69A-AC48CA46FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="4860" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17445" yWindow="0" windowWidth="11460" windowHeight="17385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WarehouseProducts" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Название</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Текущее значение</t>
-  </si>
-  <si>
-    <t>Нужное кол-во</t>
   </si>
   <si>
     <t>Толщина</t>
@@ -414,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6676B928-6B2E-48CB-8DBF-D08773355537}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,38 +447,38 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>1200</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -495,19 +492,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1500</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -553,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -569,7 +566,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -612,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC08696-492F-432A-870D-6C763A796766}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\Documents\КГУ\4 семестр\ООП\OOP_Course_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706F09D5-B7B7-4BEB-B69A-AC48CA46FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C1761-83C9-4AFB-84BE-8137276E2A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17445" yWindow="0" windowWidth="11460" windowHeight="17385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3345" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WarehouseProducts" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Название</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>SLA пластик</t>
+  </si>
+  <si>
+    <t>PrinterFDM</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
+    <t>Водомойка</t>
+  </si>
+  <si>
+    <t>PrinterSLA</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Шлиф</t>
+  </si>
+  <si>
+    <t>Ежедневник</t>
+  </si>
+  <si>
+    <t>Unprocessed</t>
   </si>
 </sst>
 </file>
@@ -523,15 +550,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
@@ -554,6 +582,71 @@
       </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC08696-492F-432A-870D-6C763A796766}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27705"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\Documents\КГУ\4 семестр\ООП\OOP_Course_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C1761-83C9-4AFB-84BE-8137276E2A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0031EC3-6602-4F51-A608-269D23FEB2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3345" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4230" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WarehouseProducts" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Название</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Цена</t>
   </si>
   <si>
-    <t>Цвет</t>
-  </si>
-  <si>
     <t>Мера измерения</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Текущее значение</t>
   </si>
   <si>
-    <t>Толщина</t>
-  </si>
-  <si>
     <t>Лампа напольная</t>
   </si>
   <si>
@@ -81,15 +75,9 @@
     <t>Laser</t>
   </si>
   <si>
-    <t>дерево</t>
-  </si>
-  <si>
     <t>Орг стекло</t>
   </si>
   <si>
-    <t>прозрачный</t>
-  </si>
-  <si>
     <t>**</t>
   </si>
   <si>
@@ -99,25 +87,22 @@
     <t>PrinterFDM</t>
   </si>
   <si>
-    <t>Красный</t>
-  </si>
-  <si>
     <t>Водомойка</t>
   </si>
   <si>
     <t>PrinterSLA</t>
   </si>
   <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Шлиф</t>
-  </si>
-  <si>
     <t>Ежедневник</t>
   </si>
   <si>
     <t>Unprocessed</t>
+  </si>
+  <si>
+    <t>Особенность</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -436,33 +421,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6676B928-6B2E-48CB-8DBF-D08773355537}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -471,75 +455,66 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>1200</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="F3">
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1562500</v>
       </c>
       <c r="H3">
-        <v>1562500</v>
-      </c>
-      <c r="I3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1500</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="F4">
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1562500</v>
       </c>
       <c r="H4">
-        <v>1562500</v>
-      </c>
-      <c r="I4">
         <v>1000000</v>
       </c>
     </row>
@@ -550,21 +525,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,75 +551,69 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1500</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="E2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="E3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1200</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
+      <c r="D4">
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -656,21 +626,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3895FE-C59F-4034-B166-7CE73FBF4B37}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,16 +653,73 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2000000</v>
+      </c>
+      <c r="F2">
+        <v>1111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2000000</v>
+      </c>
+      <c r="F3">
+        <v>1111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2000000</v>
+      </c>
+      <c r="F4">
+        <v>1111111</v>
       </c>
     </row>
   </sheetData>
@@ -714,10 +743,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\Documents\КГУ\4 семестр\ООП\OOP_Course_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0031EC3-6602-4F51-A608-269D23FEB2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10861A9C-3DC6-4593-8300-26D137D37CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4230" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="4635" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WarehouseProducts" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Название</t>
   </si>
@@ -81,9 +81,6 @@
     <t>**</t>
   </si>
   <si>
-    <t>SLA пластик</t>
-  </si>
-  <si>
     <t>PrinterFDM</t>
   </si>
   <si>
@@ -102,7 +99,28 @@
     <t>Особенность</t>
   </si>
   <si>
-    <t>true</t>
+    <t>SBS пластик</t>
+  </si>
+  <si>
+    <t>Термостойкий</t>
+  </si>
+  <si>
+    <t>Продали пазл</t>
+  </si>
+  <si>
+    <t>Купили пластик</t>
+  </si>
+  <si>
+    <t>Продали рамку</t>
+  </si>
+  <si>
+    <t>Купили прокладки</t>
+  </si>
+  <si>
+    <t>Пистолет</t>
+  </si>
+  <si>
+    <t>Пистолет из фанеры</t>
   </si>
 </sst>
 </file>
@@ -421,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6676B928-6B2E-48CB-8DBF-D08773355537}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -516,6 +534,37 @@
       </c>
       <c r="H4">
         <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1200</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2000000</v>
+      </c>
+      <c r="H6">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -528,14 +577,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
@@ -551,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -559,13 +608,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2">
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -576,16 +625,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -610,10 +659,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -626,10 +675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3895FE-C59F-4034-B166-7CE73FBF4B37}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -679,46 +728,6 @@
         <v>2000000</v>
       </c>
       <c r="F2">
-        <v>1111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>1200</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>2000000</v>
-      </c>
-      <c r="F3">
-        <v>1111111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>1200</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>2000000</v>
-      </c>
-      <c r="F4">
         <v>1111111</v>
       </c>
     </row>
@@ -729,24 +738,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC08696-492F-432A-870D-6C763A796766}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45292.5</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45292.520833333336</v>
+      </c>
+      <c r="B3">
+        <v>-200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45292.533333333333</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45298.533333333333</v>
+      </c>
+      <c r="B5">
+        <v>-200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\Documents\КГУ\4 семестр\ООП\OOP_Course_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10861A9C-3DC6-4593-8300-26D137D37CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F072A3DD-D309-4827-BE9C-A57BDAC376D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="4635" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WarehouseProducts" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Название</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Лампа напольная</t>
   </si>
   <si>
-    <t>Крутая лампа</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>Пистолет из фанеры</t>
+  </si>
+  <si>
+    <t>Фигурная лампа</t>
+  </si>
+  <si>
+    <t>Смола Anycubic</t>
   </si>
 </sst>
 </file>
@@ -441,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6676B928-6B2E-48CB-8DBF-D08773355537}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -487,18 +490,18 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>1200</v>
@@ -515,13 +518,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>1500</v>
@@ -538,21 +541,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
       <c r="E6">
         <v>1200</v>
@@ -577,7 +580,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -608,16 +611,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>950</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -625,16 +628,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -642,10 +645,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="C4">
         <v>1200</v>
@@ -659,10 +662,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -677,13 +680,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3895FE-C59F-4034-B166-7CE73FBF4B37}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
@@ -702,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -713,10 +716,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
       <c r="C2">
         <v>1200</v>
@@ -770,7 +773,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,7 +784,7 @@
         <v>-200</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,7 +795,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,7 +806,7 @@
         <v>-200</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
